--- a/Modulo4/out/info_partidos/data_Colorado.xlsx
+++ b/Modulo4/out/info_partidos/data_Colorado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="77">
   <si>
     <t>state</t>
   </si>
@@ -40,15 +40,6 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>letra_inicial</t>
-  </si>
-  <si>
-    <t>FIPStxt</t>
-  </si>
-  <si>
-    <t>PCTPOVALL_2015</t>
-  </si>
-  <si>
     <t>Colorado</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
   </si>
   <si>
     <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
 </sst>
 </file>
@@ -614,13 +602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,34 +633,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>8001</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <v>3279</v>
@@ -680,69 +659,51 @@
       <c r="H2">
         <v>0.61</v>
       </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2">
-        <v>8001</v>
-      </c>
-      <c r="K2">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>8001</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>2060</v>
       </c>
       <c r="H3">
-        <v>0.383</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3">
-        <v>8001</v>
-      </c>
-      <c r="K3">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.3829999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>8003</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>167</v>
@@ -750,34 +711,25 @@
       <c r="H4">
         <v>0.63</v>
       </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4">
-        <v>8003</v>
-      </c>
-      <c r="K4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>8003</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>90</v>
@@ -785,34 +737,25 @@
       <c r="H5">
         <v>0.34</v>
       </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5">
-        <v>8003</v>
-      </c>
-      <c r="K5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
       <c r="D6">
         <v>8005</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <v>6086</v>
@@ -820,69 +763,51 @@
       <c r="H6">
         <v>0.53</v>
       </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6">
-        <v>8005</v>
-      </c>
-      <c r="K6">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7">
         <v>8005</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>5320</v>
       </c>
       <c r="H7">
-        <v>0.463</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7">
-        <v>8005</v>
-      </c>
-      <c r="K7">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.4629999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>8007</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>156</v>
@@ -890,34 +815,25 @@
       <c r="H8">
         <v>0.642</v>
       </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8">
-        <v>8007</v>
-      </c>
-      <c r="K8">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>8007</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>83</v>
@@ -925,34 +841,25 @@
       <c r="H9">
         <v>0.342</v>
       </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9">
-        <v>8007</v>
-      </c>
-      <c r="K9">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>8009</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -960,34 +867,25 @@
       <c r="H10">
         <v>0.298</v>
       </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10">
-        <v>8009</v>
-      </c>
-      <c r="K10">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>8009</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -995,34 +893,25 @@
       <c r="H11">
         <v>0.319</v>
       </c>
-      <c r="I11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11">
-        <v>8009</v>
-      </c>
-      <c r="K11">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>8011</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <v>24</v>
@@ -1030,34 +919,25 @@
       <c r="H12">
         <v>0.444</v>
       </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12">
-        <v>8011</v>
-      </c>
-      <c r="K12">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>8011</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -1065,34 +945,25 @@
       <c r="H13">
         <v>0.481</v>
       </c>
-      <c r="I13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13">
-        <v>8011</v>
-      </c>
-      <c r="K13">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>8013</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14">
         <v>11142</v>
@@ -1100,34 +971,25 @@
       <c r="H14">
         <v>0.636</v>
       </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14">
-        <v>8013</v>
-      </c>
-      <c r="K14">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>8013</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>6354</v>
@@ -1135,34 +997,25 @@
       <c r="H15">
         <v>0.363</v>
       </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15">
-        <v>8013</v>
-      </c>
-      <c r="K15">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>8014</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G16">
         <v>1010</v>
@@ -1170,34 +1023,25 @@
       <c r="H16">
         <v>0.632</v>
       </c>
-      <c r="I16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16">
-        <v>8014</v>
-      </c>
-      <c r="K16">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>8014</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>563</v>
@@ -1205,34 +1049,25 @@
       <c r="H17">
         <v>0.352</v>
       </c>
-      <c r="I17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17">
-        <v>8014</v>
-      </c>
-      <c r="K17">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>8015</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G18">
         <v>404</v>
@@ -1240,69 +1075,51 @@
       <c r="H18">
         <v>0.652</v>
       </c>
-      <c r="I18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18">
-        <v>8015</v>
-      </c>
-      <c r="K18">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>8015</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>210</v>
       </c>
       <c r="H19">
-        <v>0.339</v>
-      </c>
-      <c r="I19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19">
-        <v>8015</v>
-      </c>
-      <c r="K19">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0.3389999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>8017</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -1310,34 +1127,25 @@
       <c r="H20">
         <v>0.4</v>
       </c>
-      <c r="I20" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20">
-        <v>8017</v>
-      </c>
-      <c r="K20">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>8017</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -1345,34 +1153,25 @@
       <c r="H21">
         <v>0.5</v>
       </c>
-      <c r="I21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21">
-        <v>8017</v>
-      </c>
-      <c r="K21">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>8019</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G22">
         <v>199</v>
@@ -1380,34 +1179,25 @@
       <c r="H22">
         <v>0.5529999999999999</v>
       </c>
-      <c r="I22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22">
-        <v>8019</v>
-      </c>
-      <c r="K22">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>8019</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>159</v>
@@ -1415,34 +1205,25 @@
       <c r="H23">
         <v>0.442</v>
       </c>
-      <c r="I23" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23">
-        <v>8019</v>
-      </c>
-      <c r="K23">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>8021</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G24">
         <v>50</v>
@@ -1450,34 +1231,25 @@
       <c r="H24">
         <v>0.4</v>
       </c>
-      <c r="I24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24">
-        <v>8021</v>
-      </c>
-      <c r="K24">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>8021</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G25">
         <v>73</v>
@@ -1485,34 +1257,25 @@
       <c r="H25">
         <v>0.584</v>
       </c>
-      <c r="I25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25">
-        <v>8021</v>
-      </c>
-      <c r="K25">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>8023</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1520,34 +1283,25 @@
       <c r="H26">
         <v>0.204</v>
       </c>
-      <c r="I26" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26">
-        <v>8023</v>
-      </c>
-      <c r="K26">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>8023</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G27">
         <v>64</v>
@@ -1555,34 +1309,25 @@
       <c r="H27">
         <v>0.5660000000000001</v>
       </c>
-      <c r="I27" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27">
-        <v>8023</v>
-      </c>
-      <c r="K27">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>8025</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -1590,34 +1335,25 @@
       <c r="H28">
         <v>0.5</v>
       </c>
-      <c r="I28" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28">
-        <v>8025</v>
-      </c>
-      <c r="K28">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>8025</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G29">
         <v>15</v>
@@ -1625,34 +1361,25 @@
       <c r="H29">
         <v>0.469</v>
       </c>
-      <c r="I29" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29">
-        <v>8025</v>
-      </c>
-      <c r="K29">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>8027</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G30">
         <v>45</v>
@@ -1660,34 +1387,25 @@
       <c r="H30">
         <v>0.57</v>
       </c>
-      <c r="I30" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30">
-        <v>8027</v>
-      </c>
-      <c r="K30">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>8027</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G31">
         <v>34</v>
@@ -1695,34 +1413,25 @@
       <c r="H31">
         <v>0.43</v>
       </c>
-      <c r="I31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31">
-        <v>8027</v>
-      </c>
-      <c r="K31">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D32">
         <v>8029</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G32">
         <v>417</v>
@@ -1730,34 +1439,25 @@
       <c r="H32">
         <v>0.696</v>
       </c>
-      <c r="I32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32">
-        <v>8029</v>
-      </c>
-      <c r="K32">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>8029</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G33">
         <v>177</v>
@@ -1765,34 +1465,25 @@
       <c r="H33">
         <v>0.295</v>
       </c>
-      <c r="I33" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33">
-        <v>8029</v>
-      </c>
-      <c r="K33">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>8031</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G34">
         <v>14624</v>
@@ -1800,34 +1491,25 @@
       <c r="H34">
         <v>0.544</v>
       </c>
-      <c r="I34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34">
-        <v>8031</v>
-      </c>
-      <c r="K34">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>8031</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G35">
         <v>12097</v>
@@ -1835,34 +1517,25 @@
       <c r="H35">
         <v>0.45</v>
       </c>
-      <c r="I35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35">
-        <v>8031</v>
-      </c>
-      <c r="K35">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>8033</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G36">
         <v>22</v>
@@ -1870,104 +1543,77 @@
       <c r="H36">
         <v>0.629</v>
       </c>
-      <c r="I36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36">
-        <v>8033</v>
-      </c>
-      <c r="K36">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>8033</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37">
-        <v>0.229</v>
-      </c>
-      <c r="I37" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37">
-        <v>8033</v>
-      </c>
-      <c r="K37">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.2289999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>8035</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G38">
         <v>2347</v>
       </c>
       <c r="H38">
-        <v>0.4970000000000001</v>
-      </c>
-      <c r="I38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J38">
-        <v>8035</v>
-      </c>
-      <c r="K38">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>8035</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G39">
         <v>2342</v>
@@ -1975,34 +1621,25 @@
       <c r="H39">
         <v>0.496</v>
       </c>
-      <c r="I39" t="s">
-        <v>80</v>
-      </c>
-      <c r="J39">
-        <v>8035</v>
-      </c>
-      <c r="K39">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D40">
         <v>8037</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G40">
         <v>623</v>
@@ -2010,34 +1647,25 @@
       <c r="H40">
         <v>0.637</v>
       </c>
-      <c r="I40" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40">
-        <v>8037</v>
-      </c>
-      <c r="K40">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41">
         <v>8037</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G41">
         <v>344</v>
@@ -2045,34 +1673,25 @@
       <c r="H41">
         <v>0.352</v>
       </c>
-      <c r="I41" t="s">
-        <v>80</v>
-      </c>
-      <c r="J41">
-        <v>8037</v>
-      </c>
-      <c r="K41">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>8041</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G42">
         <v>4954</v>
@@ -2080,34 +1699,25 @@
       <c r="H42">
         <v>0.611</v>
       </c>
-      <c r="I42" t="s">
-        <v>80</v>
-      </c>
-      <c r="J42">
-        <v>8041</v>
-      </c>
-      <c r="K42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>8041</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G43">
         <v>3109</v>
@@ -2115,34 +1725,25 @@
       <c r="H43">
         <v>0.384</v>
       </c>
-      <c r="I43" t="s">
-        <v>80</v>
-      </c>
-      <c r="J43">
-        <v>8041</v>
-      </c>
-      <c r="K43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44">
         <v>8039</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G44">
         <v>144</v>
@@ -2150,34 +1751,25 @@
       <c r="H44">
         <v>0.613</v>
       </c>
-      <c r="I44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44">
-        <v>8039</v>
-      </c>
-      <c r="K44">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D45">
         <v>8039</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G45">
         <v>89</v>
@@ -2185,34 +1777,25 @@
       <c r="H45">
         <v>0.379</v>
       </c>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45">
-        <v>8039</v>
-      </c>
-      <c r="K45">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>8043</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G46">
         <v>268</v>
@@ -2220,34 +1803,25 @@
       <c r="H46">
         <v>0.5710000000000001</v>
       </c>
-      <c r="I46" t="s">
-        <v>80</v>
-      </c>
-      <c r="J46">
-        <v>8043</v>
-      </c>
-      <c r="K46">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D47">
         <v>8043</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G47">
         <v>193</v>
@@ -2255,34 +1829,25 @@
       <c r="H47">
         <v>0.412</v>
       </c>
-      <c r="I47" t="s">
-        <v>80</v>
-      </c>
-      <c r="J47">
-        <v>8043</v>
-      </c>
-      <c r="K47">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>8045</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G48">
         <v>734</v>
@@ -2290,34 +1855,25 @@
       <c r="H48">
         <v>0.615</v>
       </c>
-      <c r="I48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48">
-        <v>8045</v>
-      </c>
-      <c r="K48">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>8045</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G49">
         <v>439</v>
@@ -2325,34 +1881,25 @@
       <c r="H49">
         <v>0.368</v>
       </c>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49">
-        <v>8045</v>
-      </c>
-      <c r="K49">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D50">
         <v>8047</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G50">
         <v>173</v>
@@ -2360,34 +1907,25 @@
       <c r="H50">
         <v>0.698</v>
       </c>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50">
-        <v>8047</v>
-      </c>
-      <c r="K50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D51">
         <v>8047</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G51">
         <v>74</v>
@@ -2395,34 +1933,25 @@
       <c r="H51">
         <v>0.298</v>
       </c>
-      <c r="I51" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51">
-        <v>8047</v>
-      </c>
-      <c r="K51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D52">
         <v>8049</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G52">
         <v>187</v>
@@ -2430,34 +1959,25 @@
       <c r="H52">
         <v>0.638</v>
       </c>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52">
-        <v>8049</v>
-      </c>
-      <c r="K52">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D53">
         <v>8049</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G53">
         <v>94</v>
@@ -2465,34 +1985,25 @@
       <c r="H53">
         <v>0.321</v>
       </c>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J53">
-        <v>8049</v>
-      </c>
-      <c r="K53">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D54">
         <v>8051</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G54">
         <v>481</v>
@@ -2500,69 +2011,51 @@
       <c r="H54">
         <v>0.763</v>
       </c>
-      <c r="I54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J54">
-        <v>8051</v>
-      </c>
-      <c r="K54">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D55">
         <v>8051</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G55">
         <v>141</v>
       </c>
       <c r="H55">
-        <v>0.224</v>
-      </c>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-      <c r="J55">
-        <v>8051</v>
-      </c>
-      <c r="K55">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>0.2239999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D56">
         <v>8053</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G56">
         <v>10</v>
@@ -2570,34 +2063,25 @@
       <c r="H56">
         <v>0.7140000000000001</v>
       </c>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-      <c r="J56">
-        <v>8053</v>
-      </c>
-      <c r="K56">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D57">
         <v>8053</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -2605,34 +2089,25 @@
       <c r="H57">
         <v>0.214</v>
       </c>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-      <c r="J57">
-        <v>8053</v>
-      </c>
-      <c r="K57">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D58">
         <v>8055</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G58">
         <v>150</v>
@@ -2640,34 +2115,25 @@
       <c r="H58">
         <v>0.584</v>
       </c>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J58">
-        <v>8055</v>
-      </c>
-      <c r="K58">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D59">
         <v>8055</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G59">
         <v>93</v>
@@ -2675,34 +2141,25 @@
       <c r="H59">
         <v>0.362</v>
       </c>
-      <c r="I59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J59">
-        <v>8055</v>
-      </c>
-      <c r="K59">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D60">
         <v>8057</v>
       </c>
       <c r="E60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G60">
         <v>12</v>
@@ -2710,34 +2167,25 @@
       <c r="H60">
         <v>0.444</v>
       </c>
-      <c r="I60" t="s">
-        <v>80</v>
-      </c>
-      <c r="J60">
-        <v>8057</v>
-      </c>
-      <c r="K60">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D61">
         <v>8057</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G61">
         <v>15</v>
@@ -2745,34 +2193,25 @@
       <c r="H61">
         <v>0.556</v>
       </c>
-      <c r="I61" t="s">
-        <v>80</v>
-      </c>
-      <c r="J61">
-        <v>8057</v>
-      </c>
-      <c r="K61">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D62">
         <v>8059</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G62">
         <v>8281</v>
@@ -2780,34 +2219,25 @@
       <c r="H62">
         <v>0.598</v>
       </c>
-      <c r="I62" t="s">
-        <v>80</v>
-      </c>
-      <c r="J62">
-        <v>8059</v>
-      </c>
-      <c r="K62">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D63">
         <v>8059</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G63">
         <v>5478</v>
@@ -2815,34 +2245,25 @@
       <c r="H63">
         <v>0.396</v>
       </c>
-      <c r="I63" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63">
-        <v>8059</v>
-      </c>
-      <c r="K63">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D64">
         <v>8061</v>
       </c>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2850,34 +2271,25 @@
       <c r="H64">
         <v>0.182</v>
       </c>
-      <c r="I64" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64">
-        <v>8061</v>
-      </c>
-      <c r="K64">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D65">
         <v>8061</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -2885,34 +2297,25 @@
       <c r="H65">
         <v>0.455</v>
       </c>
-      <c r="I65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J65">
-        <v>8061</v>
-      </c>
-      <c r="K65">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D66">
         <v>8063</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G66">
         <v>16</v>
@@ -2920,34 +2323,25 @@
       <c r="H66">
         <v>0.593</v>
       </c>
-      <c r="I66" t="s">
-        <v>80</v>
-      </c>
-      <c r="J66">
-        <v>8063</v>
-      </c>
-      <c r="K66">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D67">
         <v>8063</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G67">
         <v>11</v>
@@ -2955,34 +2349,25 @@
       <c r="H67">
         <v>0.407</v>
       </c>
-      <c r="I67" t="s">
-        <v>80</v>
-      </c>
-      <c r="J67">
-        <v>8063</v>
-      </c>
-      <c r="K67">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D68">
         <v>8067</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G68">
         <v>1466</v>
@@ -2990,34 +2375,25 @@
       <c r="H68">
         <v>0.6409999999999999</v>
       </c>
-      <c r="I68" t="s">
-        <v>80</v>
-      </c>
-      <c r="J68">
-        <v>8067</v>
-      </c>
-      <c r="K68">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D69">
         <v>8067</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G69">
         <v>819</v>
@@ -3025,34 +2401,25 @@
       <c r="H69">
         <v>0.358</v>
       </c>
-      <c r="I69" t="s">
-        <v>80</v>
-      </c>
-      <c r="J69">
-        <v>8067</v>
-      </c>
-      <c r="K69">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D70">
         <v>8065</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G70">
         <v>165</v>
@@ -3060,34 +2427,25 @@
       <c r="H70">
         <v>0.73</v>
       </c>
-      <c r="I70" t="s">
-        <v>80</v>
-      </c>
-      <c r="J70">
-        <v>8065</v>
-      </c>
-      <c r="K70">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D71">
         <v>8065</v>
       </c>
       <c r="E71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G71">
         <v>53</v>
@@ -3095,34 +2453,25 @@
       <c r="H71">
         <v>0.235</v>
       </c>
-      <c r="I71" t="s">
-        <v>80</v>
-      </c>
-      <c r="J71">
-        <v>8065</v>
-      </c>
-      <c r="K71">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D72">
         <v>8069</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G72">
         <v>6664</v>
@@ -3130,34 +2479,25 @@
       <c r="H72">
         <v>0.672</v>
       </c>
-      <c r="I72" t="s">
-        <v>80</v>
-      </c>
-      <c r="J72">
-        <v>8069</v>
-      </c>
-      <c r="K72">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D73">
         <v>8069</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G73">
         <v>3231</v>
@@ -3165,34 +2505,25 @@
       <c r="H73">
         <v>0.326</v>
       </c>
-      <c r="I73" t="s">
-        <v>80</v>
-      </c>
-      <c r="J73">
-        <v>8069</v>
-      </c>
-      <c r="K73">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D74">
         <v>8071</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G74">
         <v>106</v>
@@ -3200,34 +2531,25 @@
       <c r="H74">
         <v>0.512</v>
       </c>
-      <c r="I74" t="s">
-        <v>80</v>
-      </c>
-      <c r="J74">
-        <v>8071</v>
-      </c>
-      <c r="K74">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D75">
         <v>8071</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G75">
         <v>80</v>
@@ -3235,69 +2557,51 @@
       <c r="H75">
         <v>0.386</v>
       </c>
-      <c r="I75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J75">
-        <v>8071</v>
-      </c>
-      <c r="K75">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D76">
         <v>8073</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G76">
         <v>14</v>
       </c>
       <c r="H76">
-        <v>0.333</v>
-      </c>
-      <c r="I76" t="s">
-        <v>80</v>
-      </c>
-      <c r="J76">
-        <v>8073</v>
-      </c>
-      <c r="K76">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>0.3329999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D77">
         <v>8073</v>
       </c>
       <c r="E77" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G77">
         <v>20</v>
@@ -3305,34 +2609,25 @@
       <c r="H77">
         <v>0.476</v>
       </c>
-      <c r="I77" t="s">
-        <v>80</v>
-      </c>
-      <c r="J77">
-        <v>8073</v>
-      </c>
-      <c r="K77">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D78">
         <v>8075</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G78">
         <v>70</v>
@@ -3340,34 +2635,25 @@
       <c r="H78">
         <v>0.467</v>
       </c>
-      <c r="I78" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78">
-        <v>8075</v>
-      </c>
-      <c r="K78">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D79">
         <v>8075</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G79">
         <v>77</v>
@@ -3375,34 +2661,25 @@
       <c r="H79">
         <v>0.513</v>
       </c>
-      <c r="I79" t="s">
-        <v>80</v>
-      </c>
-      <c r="J79">
-        <v>8075</v>
-      </c>
-      <c r="K79">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D80">
         <v>8077</v>
       </c>
       <c r="E80" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G80">
         <v>1095</v>
@@ -3410,34 +2687,25 @@
       <c r="H80">
         <v>0.573</v>
       </c>
-      <c r="I80" t="s">
-        <v>80</v>
-      </c>
-      <c r="J80">
-        <v>8077</v>
-      </c>
-      <c r="K80">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D81">
         <v>8077</v>
       </c>
       <c r="E81" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G81">
         <v>791</v>
@@ -3445,34 +2713,25 @@
       <c r="H81">
         <v>0.414</v>
       </c>
-      <c r="I81" t="s">
-        <v>80</v>
-      </c>
-      <c r="J81">
-        <v>8077</v>
-      </c>
-      <c r="K81">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D82">
         <v>8079</v>
       </c>
       <c r="E82" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F82" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G82">
         <v>25</v>
@@ -3480,34 +2739,25 @@
       <c r="H82">
         <v>0.595</v>
       </c>
-      <c r="I82" t="s">
-        <v>80</v>
-      </c>
-      <c r="J82">
-        <v>8079</v>
-      </c>
-      <c r="K82">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D83">
         <v>8079</v>
       </c>
       <c r="E83" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G83">
         <v>16</v>
@@ -3515,34 +2765,25 @@
       <c r="H83">
         <v>0.381</v>
       </c>
-      <c r="I83" t="s">
-        <v>80</v>
-      </c>
-      <c r="J83">
-        <v>8079</v>
-      </c>
-      <c r="K83">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D84">
         <v>8081</v>
       </c>
       <c r="E84" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F84" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G84">
         <v>28</v>
@@ -3550,34 +2791,25 @@
       <c r="H84">
         <v>0.5600000000000001</v>
       </c>
-      <c r="I84" t="s">
-        <v>80</v>
-      </c>
-      <c r="J84">
-        <v>8081</v>
-      </c>
-      <c r="K84">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D85">
         <v>8081</v>
       </c>
       <c r="E85" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G85">
         <v>21</v>
@@ -3585,34 +2817,25 @@
       <c r="H85">
         <v>0.42</v>
       </c>
-      <c r="I85" t="s">
-        <v>80</v>
-      </c>
-      <c r="J85">
-        <v>8081</v>
-      </c>
-      <c r="K85">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D86">
         <v>8083</v>
       </c>
       <c r="E86" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F86" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G86">
         <v>412</v>
@@ -3620,34 +2843,25 @@
       <c r="H86">
         <v>0.6729999999999999</v>
       </c>
-      <c r="I86" t="s">
-        <v>80</v>
-      </c>
-      <c r="J86">
-        <v>8083</v>
-      </c>
-      <c r="K86">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D87">
         <v>8083</v>
       </c>
       <c r="E87" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F87" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G87">
         <v>198</v>
@@ -3655,34 +2869,25 @@
       <c r="H87">
         <v>0.324</v>
       </c>
-      <c r="I87" t="s">
-        <v>80</v>
-      </c>
-      <c r="J87">
-        <v>8083</v>
-      </c>
-      <c r="K87">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D88">
         <v>8085</v>
       </c>
       <c r="E88" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G88">
         <v>258</v>
@@ -3690,34 +2895,25 @@
       <c r="H88">
         <v>0.5489999999999999</v>
       </c>
-      <c r="I88" t="s">
-        <v>80</v>
-      </c>
-      <c r="J88">
-        <v>8085</v>
-      </c>
-      <c r="K88">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D89">
         <v>8085</v>
       </c>
       <c r="E89" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F89" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G89">
         <v>210</v>
@@ -3725,34 +2921,25 @@
       <c r="H89">
         <v>0.447</v>
       </c>
-      <c r="I89" t="s">
-        <v>80</v>
-      </c>
-      <c r="J89">
-        <v>8085</v>
-      </c>
-      <c r="K89">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D90">
         <v>8087</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F90" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G90">
         <v>87</v>
@@ -3760,34 +2947,25 @@
       <c r="H90">
         <v>0.5539999999999999</v>
       </c>
-      <c r="I90" t="s">
-        <v>80</v>
-      </c>
-      <c r="J90">
-        <v>8087</v>
-      </c>
-      <c r="K90">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D91">
         <v>8087</v>
       </c>
       <c r="E91" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F91" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G91">
         <v>70</v>
@@ -3795,34 +2973,25 @@
       <c r="H91">
         <v>0.446</v>
       </c>
-      <c r="I91" t="s">
-        <v>80</v>
-      </c>
-      <c r="J91">
-        <v>8087</v>
-      </c>
-      <c r="K91">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D92">
         <v>8089</v>
       </c>
       <c r="E92" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F92" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G92">
         <v>94</v>
@@ -3830,34 +2999,25 @@
       <c r="H92">
         <v>0.5429999999999999</v>
       </c>
-      <c r="I92" t="s">
-        <v>80</v>
-      </c>
-      <c r="J92">
-        <v>8089</v>
-      </c>
-      <c r="K92">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D93">
         <v>8089</v>
       </c>
       <c r="E93" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F93" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G93">
         <v>78</v>
@@ -3865,34 +3025,25 @@
       <c r="H93">
         <v>0.451</v>
       </c>
-      <c r="I93" t="s">
-        <v>80</v>
-      </c>
-      <c r="J93">
-        <v>8089</v>
-      </c>
-      <c r="K93">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D94">
         <v>8091</v>
       </c>
       <c r="E94" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F94" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G94">
         <v>156</v>
@@ -3900,34 +3051,25 @@
       <c r="H94">
         <v>0.645</v>
       </c>
-      <c r="I94" t="s">
-        <v>80</v>
-      </c>
-      <c r="J94">
-        <v>8091</v>
-      </c>
-      <c r="K94">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D95">
         <v>8091</v>
       </c>
       <c r="E95" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G95">
         <v>86</v>
@@ -3935,34 +3077,25 @@
       <c r="H95">
         <v>0.355</v>
       </c>
-      <c r="I95" t="s">
-        <v>80</v>
-      </c>
-      <c r="J95">
-        <v>8091</v>
-      </c>
-      <c r="K95">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D96">
         <v>8093</v>
       </c>
       <c r="E96" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F96" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G96">
         <v>231</v>
@@ -3970,69 +3103,51 @@
       <c r="H96">
         <v>0.662</v>
       </c>
-      <c r="I96" t="s">
-        <v>80</v>
-      </c>
-      <c r="J96">
-        <v>8093</v>
-      </c>
-      <c r="K96">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D97">
         <v>8093</v>
       </c>
       <c r="E97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G97">
         <v>118</v>
       </c>
       <c r="H97">
-        <v>0.338</v>
-      </c>
-      <c r="I97" t="s">
-        <v>80</v>
-      </c>
-      <c r="J97">
-        <v>8093</v>
-      </c>
-      <c r="K97">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>0.3379999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D98">
         <v>8095</v>
       </c>
       <c r="E98" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F98" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G98">
         <v>18</v>
@@ -4040,34 +3155,25 @@
       <c r="H98">
         <v>0.5629999999999999</v>
       </c>
-      <c r="I98" t="s">
-        <v>80</v>
-      </c>
-      <c r="J98">
-        <v>8095</v>
-      </c>
-      <c r="K98">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D99">
         <v>8095</v>
       </c>
       <c r="E99" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F99" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G99">
         <v>11</v>
@@ -4075,34 +3181,25 @@
       <c r="H99">
         <v>0.344</v>
       </c>
-      <c r="I99" t="s">
-        <v>80</v>
-      </c>
-      <c r="J99">
-        <v>8095</v>
-      </c>
-      <c r="K99">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D100">
         <v>8097</v>
       </c>
       <c r="E100" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F100" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G100">
         <v>421</v>
@@ -4110,69 +3207,51 @@
       <c r="H100">
         <v>0.547</v>
       </c>
-      <c r="I100" t="s">
-        <v>80</v>
-      </c>
-      <c r="J100">
-        <v>8097</v>
-      </c>
-      <c r="K100">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D101">
         <v>8097</v>
       </c>
       <c r="E101" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F101" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G101">
         <v>349</v>
       </c>
       <c r="H101">
-        <v>0.453</v>
-      </c>
-      <c r="I101" t="s">
-        <v>80</v>
-      </c>
-      <c r="J101">
-        <v>8097</v>
-      </c>
-      <c r="K101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>0.4529999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D102">
         <v>8099</v>
       </c>
       <c r="E102" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F102" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G102">
         <v>18</v>
@@ -4180,34 +3259,25 @@
       <c r="H102">
         <v>0.31</v>
       </c>
-      <c r="I102" t="s">
-        <v>80</v>
-      </c>
-      <c r="J102">
-        <v>8099</v>
-      </c>
-      <c r="K102">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D103">
         <v>8099</v>
       </c>
       <c r="E103" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F103" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G103">
         <v>40</v>
@@ -4215,34 +3285,25 @@
       <c r="H103">
         <v>0.6899999999999999</v>
       </c>
-      <c r="I103" t="s">
-        <v>80</v>
-      </c>
-      <c r="J103">
-        <v>8099</v>
-      </c>
-      <c r="K103">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D104">
         <v>8101</v>
       </c>
       <c r="E104" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F104" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G104">
         <v>1140</v>
@@ -4250,34 +3311,25 @@
       <c r="H104">
         <v>0.467</v>
       </c>
-      <c r="I104" t="s">
-        <v>80</v>
-      </c>
-      <c r="J104">
-        <v>8101</v>
-      </c>
-      <c r="K104">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D105">
         <v>8101</v>
       </c>
       <c r="E105" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F105" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G105">
         <v>1260</v>
@@ -4285,34 +3337,25 @@
       <c r="H105">
         <v>0.517</v>
       </c>
-      <c r="I105" t="s">
-        <v>80</v>
-      </c>
-      <c r="J105">
-        <v>8101</v>
-      </c>
-      <c r="K105">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D106">
         <v>8103</v>
       </c>
       <c r="E106" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F106" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G106">
         <v>18</v>
@@ -4320,34 +3363,25 @@
       <c r="H106">
         <v>0.6920000000000001</v>
       </c>
-      <c r="I106" t="s">
-        <v>80</v>
-      </c>
-      <c r="J106">
-        <v>8103</v>
-      </c>
-      <c r="K106">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D107">
         <v>8103</v>
       </c>
       <c r="E107" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F107" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G107">
         <v>8</v>
@@ -4355,34 +3389,25 @@
       <c r="H107">
         <v>0.308</v>
       </c>
-      <c r="I107" t="s">
-        <v>80</v>
-      </c>
-      <c r="J107">
-        <v>8103</v>
-      </c>
-      <c r="K107">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D108">
         <v>8105</v>
       </c>
       <c r="E108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G108">
         <v>59</v>
@@ -4390,34 +3415,25 @@
       <c r="H108">
         <v>0.546</v>
       </c>
-      <c r="I108" t="s">
-        <v>80</v>
-      </c>
-      <c r="J108">
-        <v>8105</v>
-      </c>
-      <c r="K108">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D109">
         <v>8105</v>
       </c>
       <c r="E109" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F109" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G109">
         <v>47</v>
@@ -4425,34 +3441,25 @@
       <c r="H109">
         <v>0.435</v>
       </c>
-      <c r="I109" t="s">
-        <v>80</v>
-      </c>
-      <c r="J109">
-        <v>8105</v>
-      </c>
-      <c r="K109">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D110">
         <v>8107</v>
       </c>
       <c r="E110" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F110" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G110">
         <v>406</v>
@@ -4460,34 +3467,25 @@
       <c r="H110">
         <v>0.63</v>
       </c>
-      <c r="I110" t="s">
-        <v>80</v>
-      </c>
-      <c r="J110">
-        <v>8107</v>
-      </c>
-      <c r="K110">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D111">
         <v>8107</v>
       </c>
       <c r="E111" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F111" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G111">
         <v>230</v>
@@ -4495,34 +3493,25 @@
       <c r="H111">
         <v>0.357</v>
       </c>
-      <c r="I111" t="s">
-        <v>80</v>
-      </c>
-      <c r="J111">
-        <v>8107</v>
-      </c>
-      <c r="K111">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D112">
         <v>8109</v>
       </c>
       <c r="E112" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F112" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G112">
         <v>219</v>
@@ -4530,34 +3519,25 @@
       <c r="H112">
         <v>0.8109999999999999</v>
       </c>
-      <c r="I112" t="s">
-        <v>80</v>
-      </c>
-      <c r="J112">
-        <v>8109</v>
-      </c>
-      <c r="K112">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D113">
         <v>8109</v>
       </c>
       <c r="E113" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F113" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G113">
         <v>47</v>
@@ -4565,34 +3545,25 @@
       <c r="H113">
         <v>0.174</v>
       </c>
-      <c r="I113" t="s">
-        <v>80</v>
-      </c>
-      <c r="J113">
-        <v>8109</v>
-      </c>
-      <c r="K113">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D114">
         <v>8111</v>
       </c>
       <c r="E114" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G114">
         <v>27</v>
@@ -4600,34 +3571,25 @@
       <c r="H114">
         <v>0.711</v>
       </c>
-      <c r="I114" t="s">
-        <v>80</v>
-      </c>
-      <c r="J114">
-        <v>8111</v>
-      </c>
-      <c r="K114">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D115">
         <v>8111</v>
       </c>
       <c r="E115" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F115" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G115">
         <v>11</v>
@@ -4635,34 +3597,25 @@
       <c r="H115">
         <v>0.289</v>
       </c>
-      <c r="I115" t="s">
-        <v>80</v>
-      </c>
-      <c r="J115">
-        <v>8111</v>
-      </c>
-      <c r="K115">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D116">
         <v>8113</v>
       </c>
       <c r="E116" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F116" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G116">
         <v>329</v>
@@ -4670,34 +3623,25 @@
       <c r="H116">
         <v>0.7829999999999999</v>
       </c>
-      <c r="I116" t="s">
-        <v>80</v>
-      </c>
-      <c r="J116">
-        <v>8113</v>
-      </c>
-      <c r="K116">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D117">
         <v>8113</v>
       </c>
       <c r="E117" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F117" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G117">
         <v>89</v>
@@ -4705,34 +3649,25 @@
       <c r="H117">
         <v>0.212</v>
       </c>
-      <c r="I117" t="s">
-        <v>80</v>
-      </c>
-      <c r="J117">
-        <v>8113</v>
-      </c>
-      <c r="K117">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D118">
         <v>8115</v>
       </c>
       <c r="E118" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F118" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G118">
         <v>8</v>
@@ -4740,34 +3675,25 @@
       <c r="H118">
         <v>0.381</v>
       </c>
-      <c r="I118" t="s">
-        <v>80</v>
-      </c>
-      <c r="J118">
-        <v>8115</v>
-      </c>
-      <c r="K118">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D119">
         <v>8115</v>
       </c>
       <c r="E119" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F119" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G119">
         <v>13</v>
@@ -4775,34 +3701,25 @@
       <c r="H119">
         <v>0.619</v>
       </c>
-      <c r="I119" t="s">
-        <v>80</v>
-      </c>
-      <c r="J119">
-        <v>8115</v>
-      </c>
-      <c r="K119">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D120">
         <v>8117</v>
       </c>
       <c r="E120" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F120" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G120">
         <v>419</v>
@@ -4810,34 +3727,25 @@
       <c r="H120">
         <v>0.6</v>
       </c>
-      <c r="I120" t="s">
-        <v>80</v>
-      </c>
-      <c r="J120">
-        <v>8117</v>
-      </c>
-      <c r="K120">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D121">
         <v>8117</v>
       </c>
       <c r="E121" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F121" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G121">
         <v>276</v>
@@ -4845,34 +3753,25 @@
       <c r="H121">
         <v>0.395</v>
       </c>
-      <c r="I121" t="s">
-        <v>80</v>
-      </c>
-      <c r="J121">
-        <v>8117</v>
-      </c>
-      <c r="K121">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D122">
         <v>8119</v>
       </c>
       <c r="E122" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F122" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G122">
         <v>219</v>
@@ -4880,34 +3779,25 @@
       <c r="H122">
         <v>0.622</v>
       </c>
-      <c r="I122" t="s">
-        <v>80</v>
-      </c>
-      <c r="J122">
-        <v>8119</v>
-      </c>
-      <c r="K122">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D123">
         <v>8119</v>
       </c>
       <c r="E123" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F123" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G123">
         <v>126</v>
@@ -4915,34 +3805,25 @@
       <c r="H123">
         <v>0.358</v>
       </c>
-      <c r="I123" t="s">
-        <v>80</v>
-      </c>
-      <c r="J123">
-        <v>8119</v>
-      </c>
-      <c r="K123">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D124">
         <v>8121</v>
       </c>
       <c r="E124" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F124" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G124">
         <v>12</v>
@@ -4950,34 +3831,25 @@
       <c r="H124">
         <v>0.522</v>
       </c>
-      <c r="I124" t="s">
-        <v>80</v>
-      </c>
-      <c r="J124">
-        <v>8121</v>
-      </c>
-      <c r="K124">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D125">
         <v>8121</v>
       </c>
       <c r="E125" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G125">
         <v>10</v>
@@ -4985,34 +3857,25 @@
       <c r="H125">
         <v>0.435</v>
       </c>
-      <c r="I125" t="s">
-        <v>80</v>
-      </c>
-      <c r="J125">
-        <v>8121</v>
-      </c>
-      <c r="K125">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D126">
         <v>8123</v>
       </c>
       <c r="E126" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F126" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G126">
         <v>1647</v>
@@ -5020,34 +3883,25 @@
       <c r="H126">
         <v>0.607</v>
       </c>
-      <c r="I126" t="s">
-        <v>80</v>
-      </c>
-      <c r="J126">
-        <v>8123</v>
-      </c>
-      <c r="K126">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D127">
         <v>8123</v>
       </c>
       <c r="E127" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F127" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G127">
         <v>1043</v>
@@ -5055,84 +3909,57 @@
       <c r="H127">
         <v>0.385</v>
       </c>
-      <c r="I127" t="s">
-        <v>80</v>
-      </c>
-      <c r="J127">
-        <v>8123</v>
-      </c>
-      <c r="K127">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D128">
         <v>8125</v>
       </c>
       <c r="E128" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F128" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G128">
         <v>33</v>
       </c>
       <c r="H128">
-        <v>0.393</v>
-      </c>
-      <c r="I128" t="s">
-        <v>80</v>
-      </c>
-      <c r="J128">
-        <v>8125</v>
-      </c>
-      <c r="K128">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>0.3929999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D129">
         <v>8125</v>
       </c>
       <c r="E129" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F129" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G129">
         <v>45</v>
       </c>
       <c r="H129">
         <v>0.536</v>
-      </c>
-      <c r="I129" t="s">
-        <v>80</v>
-      </c>
-      <c r="J129">
-        <v>8125</v>
-      </c>
-      <c r="K129">
-        <v>14.1</v>
       </c>
     </row>
   </sheetData>
